--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2327,28 +2327,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>431.8067245216059</v>
+        <v>543.8698241537481</v>
       </c>
       <c r="AB2" t="n">
-        <v>590.8170104586688</v>
+        <v>744.1466872504002</v>
       </c>
       <c r="AC2" t="n">
-        <v>534.430264197375</v>
+        <v>673.1263718356564</v>
       </c>
       <c r="AD2" t="n">
-        <v>431806.7245216059</v>
+        <v>543869.8241537481</v>
       </c>
       <c r="AE2" t="n">
-        <v>590817.0104586688</v>
+        <v>744146.6872504002</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.266556928847628e-06</v>
+        <v>1.825950052901765e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.99739583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>534430.2641973749</v>
+        <v>673126.3718356565</v>
       </c>
     </row>
     <row r="3">
@@ -2433,28 +2433,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>315.575324947645</v>
+        <v>401.8236620479083</v>
       </c>
       <c r="AB3" t="n">
-        <v>431.784081794126</v>
+        <v>549.7928616227952</v>
       </c>
       <c r="AC3" t="n">
-        <v>390.5752150404587</v>
+        <v>497.3214025486424</v>
       </c>
       <c r="AD3" t="n">
-        <v>315575.324947645</v>
+        <v>401823.6620479083</v>
       </c>
       <c r="AE3" t="n">
-        <v>431784.081794126</v>
+        <v>549792.8616227951</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.606105851554982e-06</v>
+        <v>2.315465651655256e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.91927083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>390575.2150404587</v>
+        <v>497321.4025486424</v>
       </c>
     </row>
     <row r="4">
@@ -2539,28 +2539,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>284.4924889603138</v>
+        <v>362.0222069190731</v>
       </c>
       <c r="AB4" t="n">
-        <v>389.2551743183158</v>
+        <v>495.3347547992489</v>
       </c>
       <c r="AC4" t="n">
-        <v>352.1052068044432</v>
+        <v>448.0607010079025</v>
       </c>
       <c r="AD4" t="n">
-        <v>284492.4889603138</v>
+        <v>362022.2069190731</v>
       </c>
       <c r="AE4" t="n">
-        <v>389255.1743183158</v>
+        <v>495334.7547992489</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.743774068103272e-06</v>
+        <v>2.513937020421882e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.43489583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>352105.2068044433</v>
+        <v>448060.7010079025</v>
       </c>
     </row>
     <row r="5">
@@ -2645,28 +2645,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>263.4846898869276</v>
+        <v>341.0996591917074</v>
       </c>
       <c r="AB5" t="n">
-        <v>360.5113768274237</v>
+        <v>466.7076019610062</v>
       </c>
       <c r="AC5" t="n">
-        <v>326.1046770039089</v>
+        <v>422.1656834580803</v>
       </c>
       <c r="AD5" t="n">
-        <v>263484.6898869276</v>
+        <v>341099.6591917074</v>
       </c>
       <c r="AE5" t="n">
-        <v>360511.3768274237</v>
+        <v>466707.6019610062</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.813331763137844e-06</v>
+        <v>2.614215874088301e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.7578125</v>
       </c>
       <c r="AH5" t="n">
-        <v>326104.6770039089</v>
+        <v>422165.6834580802</v>
       </c>
     </row>
     <row r="6">
@@ -2751,28 +2751,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>256.0789664834502</v>
+        <v>325.0606575013007</v>
       </c>
       <c r="AB6" t="n">
-        <v>350.3785393491622</v>
+        <v>444.7623322573764</v>
       </c>
       <c r="AC6" t="n">
-        <v>316.9389033131513</v>
+        <v>402.3148394945854</v>
       </c>
       <c r="AD6" t="n">
-        <v>256078.9664834502</v>
+        <v>325060.6575013007</v>
       </c>
       <c r="AE6" t="n">
-        <v>350378.5393491623</v>
+        <v>444762.3322573764</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.844282603277388e-06</v>
+        <v>2.658836598907654e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.484375</v>
       </c>
       <c r="AH6" t="n">
-        <v>316938.9033131513</v>
+        <v>402314.8394945854</v>
       </c>
     </row>
     <row r="7">
@@ -2857,28 +2857,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>255.435457824234</v>
+        <v>324.4171488420845</v>
       </c>
       <c r="AB7" t="n">
-        <v>349.4980624120247</v>
+        <v>443.8818553202385</v>
       </c>
       <c r="AC7" t="n">
-        <v>316.1424578591369</v>
+        <v>401.5183940405709</v>
       </c>
       <c r="AD7" t="n">
-        <v>255435.457824234</v>
+        <v>324417.1488420846</v>
       </c>
       <c r="AE7" t="n">
-        <v>349498.0624120247</v>
+        <v>443881.8553202385</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.851121665238841e-06</v>
+        <v>2.668696231164118e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.41927083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>316142.4578591369</v>
+        <v>401518.3940405708</v>
       </c>
     </row>
   </sheetData>
@@ -3154,28 +3154,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>357.0758438439295</v>
+        <v>449.6675029489628</v>
       </c>
       <c r="AB2" t="n">
-        <v>488.5669226216995</v>
+        <v>615.2549154649111</v>
       </c>
       <c r="AC2" t="n">
-        <v>441.9387812346663</v>
+        <v>556.5358498486364</v>
       </c>
       <c r="AD2" t="n">
-        <v>357075.8438439295</v>
+        <v>449667.5029489628</v>
       </c>
       <c r="AE2" t="n">
-        <v>488566.9226216995</v>
+        <v>615254.915464911</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.461923508770863e-06</v>
+        <v>2.140201020808975e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.51041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>441938.7812346663</v>
+        <v>556535.8498486364</v>
       </c>
     </row>
     <row r="3">
@@ -3260,28 +3260,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>272.6299178245375</v>
+        <v>348.3867298195647</v>
       </c>
       <c r="AB3" t="n">
-        <v>373.0242811506434</v>
+        <v>476.6780934769075</v>
       </c>
       <c r="AC3" t="n">
-        <v>337.423367300492</v>
+        <v>431.1846052573766</v>
       </c>
       <c r="AD3" t="n">
-        <v>272629.9178245375</v>
+        <v>348386.7298195647</v>
       </c>
       <c r="AE3" t="n">
-        <v>373024.2811506434</v>
+        <v>476678.0934769075</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.776527786581637e-06</v>
+        <v>2.600769848440452e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.6953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>337423.367300492</v>
+        <v>431184.6052573766</v>
       </c>
     </row>
     <row r="4">
@@ -3366,28 +3366,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>245.4970993138348</v>
+        <v>321.1685704542935</v>
       </c>
       <c r="AB4" t="n">
-        <v>335.8999618486702</v>
+        <v>439.437007052899</v>
       </c>
       <c r="AC4" t="n">
-        <v>303.8421409284904</v>
+        <v>397.4977558534825</v>
       </c>
       <c r="AD4" t="n">
-        <v>245497.0993138348</v>
+        <v>321168.5704542935</v>
       </c>
       <c r="AE4" t="n">
-        <v>335899.9618486702</v>
+        <v>439437.007052899</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.904383312793017e-06</v>
+        <v>2.787945529022897e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.51041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>303842.1409284904</v>
+        <v>397497.7558534825</v>
       </c>
     </row>
     <row r="5">
@@ -3472,28 +3472,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>240.6272271530531</v>
+        <v>307.8813642470598</v>
       </c>
       <c r="AB5" t="n">
-        <v>329.2367879146951</v>
+        <v>421.2568653299952</v>
       </c>
       <c r="AC5" t="n">
-        <v>297.8148909629485</v>
+        <v>381.0527013406235</v>
       </c>
       <c r="AD5" t="n">
-        <v>240627.2271530531</v>
+        <v>307881.3642470598</v>
       </c>
       <c r="AE5" t="n">
-        <v>329236.7879146951</v>
+        <v>421256.8653299952</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.930727104879251e-06</v>
+        <v>2.826511849611272e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.2890625</v>
       </c>
       <c r="AH5" t="n">
-        <v>297814.8909629486</v>
+        <v>381052.7013406234</v>
       </c>
     </row>
   </sheetData>
@@ -3769,28 +3769,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>206.5231859334077</v>
+        <v>276.3434436869973</v>
       </c>
       <c r="AB2" t="n">
-        <v>282.5741341538879</v>
+        <v>378.1052910648595</v>
       </c>
       <c r="AC2" t="n">
-        <v>255.605655385612</v>
+        <v>342.0194527597374</v>
       </c>
       <c r="AD2" t="n">
-        <v>206523.1859334077</v>
+        <v>276343.4436869973</v>
       </c>
       <c r="AE2" t="n">
-        <v>282574.1341538879</v>
+        <v>378105.2910648595</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.095807124269632e-06</v>
+        <v>3.242472312827906e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.74479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>255605.655385612</v>
+        <v>342019.4527597374</v>
       </c>
     </row>
     <row r="3">
@@ -3875,28 +3875,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>204.8277279009372</v>
+        <v>274.6479856545268</v>
       </c>
       <c r="AB3" t="n">
-        <v>280.2543336755336</v>
+        <v>375.785490586504</v>
       </c>
       <c r="AC3" t="n">
-        <v>253.5072534090507</v>
+        <v>339.9210507831758</v>
       </c>
       <c r="AD3" t="n">
-        <v>204827.7279009373</v>
+        <v>274647.9856545268</v>
       </c>
       <c r="AE3" t="n">
-        <v>280254.3336755336</v>
+        <v>375785.490586504</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.117496992816339e-06</v>
+        <v>3.276029216713364e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.5625</v>
       </c>
       <c r="AH3" t="n">
-        <v>253507.2534090507</v>
+        <v>339921.0507831758</v>
       </c>
     </row>
   </sheetData>
@@ -4172,28 +4172,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>257.3505358540752</v>
+        <v>329.4584741137591</v>
       </c>
       <c r="AB2" t="n">
-        <v>352.1183566597321</v>
+        <v>450.7796189645177</v>
       </c>
       <c r="AC2" t="n">
-        <v>318.5126749014498</v>
+        <v>407.7578448037122</v>
       </c>
       <c r="AD2" t="n">
-        <v>257350.5358540752</v>
+        <v>329458.4741137591</v>
       </c>
       <c r="AE2" t="n">
-        <v>352118.3566597321</v>
+        <v>450779.6189645177</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.845977505846164e-06</v>
+        <v>2.789814670460169e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.17708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>318512.6749014498</v>
+        <v>407757.8448037122</v>
       </c>
     </row>
     <row r="3">
@@ -4278,28 +4278,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>217.3922151407656</v>
+        <v>281.4786878887044</v>
       </c>
       <c r="AB3" t="n">
-        <v>297.4456194231142</v>
+        <v>385.1315587326201</v>
       </c>
       <c r="AC3" t="n">
-        <v>269.0578269730087</v>
+        <v>348.3751433027157</v>
       </c>
       <c r="AD3" t="n">
-        <v>217392.2151407656</v>
+        <v>281478.6878887044</v>
       </c>
       <c r="AE3" t="n">
-        <v>297445.6194231142</v>
+        <v>385131.5587326201</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.056957410689436e-06</v>
+        <v>3.10866732811173e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.31510416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>269057.8269730087</v>
+        <v>348375.1433027157</v>
       </c>
     </row>
   </sheetData>
@@ -4575,28 +4575,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>202.4025824444707</v>
+        <v>262.8731650501534</v>
       </c>
       <c r="AB2" t="n">
-        <v>276.9361426721312</v>
+        <v>359.6746615671775</v>
       </c>
       <c r="AC2" t="n">
-        <v>250.5057458979015</v>
+        <v>325.3478166737633</v>
       </c>
       <c r="AD2" t="n">
-        <v>202402.5824444707</v>
+        <v>262873.1650501534</v>
       </c>
       <c r="AE2" t="n">
-        <v>276936.1426721311</v>
+        <v>359674.6615671775</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.137914835474272e-06</v>
+        <v>3.378948721842215e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.04427083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>250505.7458979015</v>
+        <v>325347.8166737633</v>
       </c>
     </row>
   </sheetData>
@@ -4872,28 +4872,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>378.2137826763934</v>
+        <v>471.3445405072165</v>
       </c>
       <c r="AB2" t="n">
-        <v>517.4887830723226</v>
+        <v>644.9143945755167</v>
       </c>
       <c r="AC2" t="n">
-        <v>468.1003799159679</v>
+        <v>583.3646699002664</v>
       </c>
       <c r="AD2" t="n">
-        <v>378213.7826763933</v>
+        <v>471344.5405072165</v>
       </c>
       <c r="AE2" t="n">
-        <v>517488.7830723225</v>
+        <v>644914.3945755167</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.413710422871423e-06</v>
+        <v>2.061029041991259e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.04427083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>468100.3799159679</v>
+        <v>583364.6699002665</v>
       </c>
     </row>
     <row r="3">
@@ -4978,28 +4978,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>281.1544302820346</v>
+        <v>365.7255750972947</v>
       </c>
       <c r="AB3" t="n">
-        <v>384.6878951699387</v>
+        <v>500.4018665217646</v>
       </c>
       <c r="AC3" t="n">
-        <v>347.9738223677708</v>
+        <v>452.6442146993574</v>
       </c>
       <c r="AD3" t="n">
-        <v>281154.4302820346</v>
+        <v>365725.5750972946</v>
       </c>
       <c r="AE3" t="n">
-        <v>384687.8951699387</v>
+        <v>500401.8665217647</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.731734247644794e-06</v>
+        <v>2.524671615674591e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.99479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>347973.8223677708</v>
+        <v>452644.2146993574</v>
       </c>
     </row>
     <row r="4">
@@ -5084,28 +5084,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>254.1264564287712</v>
+        <v>330.3087594461658</v>
       </c>
       <c r="AB4" t="n">
-        <v>347.7070289536877</v>
+        <v>451.9430168682579</v>
       </c>
       <c r="AC4" t="n">
-        <v>314.5223581203316</v>
+        <v>408.8102096443586</v>
       </c>
       <c r="AD4" t="n">
-        <v>254126.4564287712</v>
+        <v>330308.7594461658</v>
       </c>
       <c r="AE4" t="n">
-        <v>347707.0289536876</v>
+        <v>451943.0168682579</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.855569709887247e-06</v>
+        <v>2.705209638158507e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.796875</v>
       </c>
       <c r="AH4" t="n">
-        <v>314522.3581203316</v>
+        <v>408810.2096443586</v>
       </c>
     </row>
     <row r="5">
@@ -5190,28 +5190,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>244.4560625476107</v>
+        <v>312.1642724211158</v>
       </c>
       <c r="AB5" t="n">
-        <v>334.4755694178223</v>
+        <v>427.116929242312</v>
       </c>
       <c r="AC5" t="n">
-        <v>302.553690512095</v>
+        <v>386.3534889778002</v>
       </c>
       <c r="AD5" t="n">
-        <v>244456.0625476107</v>
+        <v>312164.2724211158</v>
       </c>
       <c r="AE5" t="n">
-        <v>334475.5694178223</v>
+        <v>427116.929242312</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.910751270453642e-06</v>
+        <v>2.785658078708827e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.30208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>302553.690512095</v>
+        <v>386353.4889778002</v>
       </c>
     </row>
     <row r="6">
@@ -5296,28 +5296,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>245.2139154439599</v>
+        <v>312.922125317465</v>
       </c>
       <c r="AB6" t="n">
-        <v>335.512497184717</v>
+        <v>428.1538570092071</v>
       </c>
       <c r="AC6" t="n">
-        <v>303.4916553482547</v>
+        <v>387.2914538139601</v>
       </c>
       <c r="AD6" t="n">
-        <v>245213.9154439599</v>
+        <v>312922.125317465</v>
       </c>
       <c r="AE6" t="n">
-        <v>335512.497184717</v>
+        <v>428153.8570092071</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.90744899146051e-06</v>
+        <v>2.780843731442589e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.34114583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>303491.6553482547</v>
+        <v>387291.4538139601</v>
       </c>
     </row>
   </sheetData>
@@ -5593,28 +5593,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>196.7867855156166</v>
+        <v>263.534451144421</v>
       </c>
       <c r="AB2" t="n">
-        <v>269.2523615626018</v>
+        <v>360.5794623752379</v>
       </c>
       <c r="AC2" t="n">
-        <v>243.5552940732087</v>
+        <v>326.1662645625983</v>
       </c>
       <c r="AD2" t="n">
-        <v>196786.7855156166</v>
+        <v>263534.451144421</v>
       </c>
       <c r="AE2" t="n">
-        <v>269252.3615626018</v>
+        <v>360579.4623752379</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.133577145717361e-06</v>
+        <v>3.418491759756515e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.47395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>243555.2940732087</v>
+        <v>326166.2645625983</v>
       </c>
     </row>
   </sheetData>
@@ -5890,28 +5890,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>301.9260595833832</v>
+        <v>392.3207189159418</v>
       </c>
       <c r="AB2" t="n">
-        <v>413.1085547596536</v>
+        <v>536.790515589376</v>
       </c>
       <c r="AC2" t="n">
-        <v>373.6820540948896</v>
+        <v>485.5599821717456</v>
       </c>
       <c r="AD2" t="n">
-        <v>301926.0595833831</v>
+        <v>392320.7189159418</v>
       </c>
       <c r="AE2" t="n">
-        <v>413108.5547596536</v>
+        <v>536790.515589376</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.635651348818954e-06</v>
+        <v>2.428685778169469e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.8046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>373682.0540948896</v>
+        <v>485559.9821717456</v>
       </c>
     </row>
     <row r="3">
@@ -5996,28 +5996,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>238.6583787390234</v>
+        <v>312.6719532822109</v>
       </c>
       <c r="AB3" t="n">
-        <v>326.5429226551593</v>
+        <v>427.8115605937612</v>
       </c>
       <c r="AC3" t="n">
-        <v>295.3781244229183</v>
+        <v>386.9818256879882</v>
       </c>
       <c r="AD3" t="n">
-        <v>238658.3787390234</v>
+        <v>312671.9532822109</v>
       </c>
       <c r="AE3" t="n">
-        <v>326542.9226551593</v>
+        <v>427811.5605937612</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.927548913320106e-06</v>
+        <v>2.862107891077667e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.80989583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>295378.1244229183</v>
+        <v>386981.8256879882</v>
       </c>
     </row>
     <row r="4">
@@ -6102,28 +6102,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>229.0003021217806</v>
+        <v>294.7807533515461</v>
       </c>
       <c r="AB4" t="n">
-        <v>313.3283161431854</v>
+        <v>403.3320315445908</v>
       </c>
       <c r="AC4" t="n">
-        <v>283.4247014096263</v>
+        <v>364.838588534036</v>
       </c>
       <c r="AD4" t="n">
-        <v>229000.3021217806</v>
+        <v>294780.7533515461</v>
       </c>
       <c r="AE4" t="n">
-        <v>313328.3161431854</v>
+        <v>403332.0315445908</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.997183387285735e-06</v>
+        <v>2.96550416603122e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.22395833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>283424.7014096263</v>
+        <v>364838.588534036</v>
       </c>
     </row>
   </sheetData>
@@ -6399,28 +6399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>335.1095757935659</v>
+        <v>426.967802277108</v>
       </c>
       <c r="AB2" t="n">
-        <v>458.5117055918402</v>
+        <v>584.1961835655637</v>
       </c>
       <c r="AC2" t="n">
-        <v>414.7519919353747</v>
+        <v>528.4413197305589</v>
       </c>
       <c r="AD2" t="n">
-        <v>335109.5757935659</v>
+        <v>426967.802277108</v>
       </c>
       <c r="AE2" t="n">
-        <v>458511.7055918402</v>
+        <v>584196.1835655638</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.518686514919022e-06</v>
+        <v>2.233141164037132e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.8984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>414751.9919353747</v>
+        <v>528441.3197305589</v>
       </c>
     </row>
     <row r="3">
@@ -6505,28 +6505,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>264.4740007541444</v>
+        <v>339.5299636483725</v>
       </c>
       <c r="AB3" t="n">
-        <v>361.8649956012648</v>
+        <v>464.5598752685353</v>
       </c>
       <c r="AC3" t="n">
-        <v>327.3291083017904</v>
+        <v>420.2229327867854</v>
       </c>
       <c r="AD3" t="n">
-        <v>264474.0007541443</v>
+        <v>339529.9636483724</v>
       </c>
       <c r="AE3" t="n">
-        <v>361864.9956012648</v>
+        <v>464559.8752685353</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.822482319863178e-06</v>
+        <v>2.679855420612173e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>327329.1083017904</v>
+        <v>420222.9327867854</v>
       </c>
     </row>
     <row r="4">
@@ -6611,28 +6611,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>238.3575633024606</v>
+        <v>305.1403609296166</v>
       </c>
       <c r="AB4" t="n">
-        <v>326.1313337038138</v>
+        <v>417.5065036665375</v>
       </c>
       <c r="AC4" t="n">
-        <v>295.0058169434204</v>
+        <v>377.6602689306605</v>
       </c>
       <c r="AD4" t="n">
-        <v>238357.5633024607</v>
+        <v>305140.3609296166</v>
       </c>
       <c r="AE4" t="n">
-        <v>326131.3337038138</v>
+        <v>417506.5036665375</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.940802534674936e-06</v>
+        <v>2.853838490612594e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.35416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>295005.8169434204</v>
+        <v>377660.2689306606</v>
       </c>
     </row>
     <row r="5">
@@ -6717,28 +6717,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>237.2598316892086</v>
+        <v>304.0426293163646</v>
       </c>
       <c r="AB5" t="n">
-        <v>324.6293688820622</v>
+        <v>416.0045388447852</v>
       </c>
       <c r="AC5" t="n">
-        <v>293.6471975362355</v>
+        <v>376.3016495234754</v>
       </c>
       <c r="AD5" t="n">
-        <v>237259.8316892086</v>
+        <v>304042.6293163646</v>
       </c>
       <c r="AE5" t="n">
-        <v>324629.3688820623</v>
+        <v>416004.5388447852</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.950235975781683e-06</v>
+        <v>2.86770982314044e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.27604166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>293647.1975362354</v>
+        <v>376301.6495234754</v>
       </c>
     </row>
   </sheetData>
@@ -7014,28 +7014,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>415.2762317546303</v>
+        <v>518.0895820539884</v>
       </c>
       <c r="AB2" t="n">
-        <v>568.1992609810214</v>
+        <v>708.873022665497</v>
       </c>
       <c r="AC2" t="n">
-        <v>513.9711209856633</v>
+        <v>641.2191762918372</v>
       </c>
       <c r="AD2" t="n">
-        <v>415276.2317546303</v>
+        <v>518089.5820539884</v>
       </c>
       <c r="AE2" t="n">
-        <v>568199.2609810214</v>
+        <v>708873.022665497</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.316020815669779e-06</v>
+        <v>1.903982734310467e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.28125</v>
       </c>
       <c r="AH2" t="n">
-        <v>513971.1209856634</v>
+        <v>641219.1762918372</v>
       </c>
     </row>
     <row r="3">
@@ -7120,28 +7120,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>306.3965926623318</v>
+        <v>392.1312038910519</v>
       </c>
       <c r="AB3" t="n">
-        <v>419.2253353442711</v>
+        <v>536.5312127715089</v>
       </c>
       <c r="AC3" t="n">
-        <v>379.2150577254666</v>
+        <v>485.3254268508819</v>
       </c>
       <c r="AD3" t="n">
-        <v>306396.5926623318</v>
+        <v>392131.2038910519</v>
       </c>
       <c r="AE3" t="n">
-        <v>419225.335344271</v>
+        <v>536531.2127715088</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.648449358320015e-06</v>
+        <v>2.384931210247689e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.58072916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>379215.0577254666</v>
+        <v>485325.4268508819</v>
       </c>
     </row>
     <row r="4">
@@ -7226,28 +7226,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>277.7250625365033</v>
+        <v>354.7924272108738</v>
       </c>
       <c r="AB4" t="n">
-        <v>379.9956829274756</v>
+        <v>485.4426512471206</v>
       </c>
       <c r="AC4" t="n">
-        <v>343.729428276167</v>
+        <v>439.1126859351347</v>
       </c>
       <c r="AD4" t="n">
-        <v>277725.0625365033</v>
+        <v>354792.4272108738</v>
       </c>
       <c r="AE4" t="n">
-        <v>379995.6829274755</v>
+        <v>485442.6512471206</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.776348116749252e-06</v>
+        <v>2.569971617579754e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.25260416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>343729.428276167</v>
+        <v>439112.6859351347</v>
       </c>
     </row>
     <row r="5">
@@ -7332,28 +7332,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>256.8181441550464</v>
+        <v>333.9707601754406</v>
       </c>
       <c r="AB5" t="n">
-        <v>351.3899148496571</v>
+        <v>456.9535278221219</v>
       </c>
       <c r="AC5" t="n">
-        <v>317.8537545553536</v>
+        <v>413.3425244650821</v>
       </c>
       <c r="AD5" t="n">
-        <v>256818.1441550464</v>
+        <v>333970.7601754406</v>
       </c>
       <c r="AE5" t="n">
-        <v>351389.9148496571</v>
+        <v>456953.5278221219</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.847073589125684e-06</v>
+        <v>2.672295286534902e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.58854166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>317853.7545553537</v>
+        <v>413342.5244650821</v>
       </c>
     </row>
     <row r="6">
@@ -7438,28 +7438,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>252.1224431824173</v>
+        <v>320.6931535030333</v>
       </c>
       <c r="AB6" t="n">
-        <v>344.9650496192028</v>
+        <v>438.7865206062692</v>
       </c>
       <c r="AC6" t="n">
-        <v>312.0420694451369</v>
+        <v>396.9093509203556</v>
       </c>
       <c r="AD6" t="n">
-        <v>252122.4431824173</v>
+        <v>320693.1535030333</v>
       </c>
       <c r="AE6" t="n">
-        <v>344965.0496192029</v>
+        <v>438786.5206062692</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.869566453926705e-06</v>
+        <v>2.704837344925162e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.38020833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>312042.0694451369</v>
+        <v>396909.3509203556</v>
       </c>
     </row>
   </sheetData>
@@ -7735,28 +7735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>269.7730136623218</v>
+        <v>350.6457651397395</v>
       </c>
       <c r="AB2" t="n">
-        <v>369.1153388381837</v>
+        <v>479.7690052635753</v>
       </c>
       <c r="AC2" t="n">
-        <v>333.8874889560984</v>
+        <v>433.9805247612467</v>
       </c>
       <c r="AD2" t="n">
-        <v>269773.0136623218</v>
+        <v>350645.7651397395</v>
       </c>
       <c r="AE2" t="n">
-        <v>369115.3388381837</v>
+        <v>479769.0052635752</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.767003249591251e-06</v>
+        <v>2.653481592860696e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>333887.4889560984</v>
+        <v>433980.5247612468</v>
       </c>
     </row>
     <row r="3">
@@ -7841,28 +7841,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>222.0898697005518</v>
+        <v>286.7710922201254</v>
       </c>
       <c r="AB3" t="n">
-        <v>303.8731576377029</v>
+        <v>392.372859823271</v>
       </c>
       <c r="AC3" t="n">
-        <v>274.8719299615057</v>
+        <v>354.9253447805048</v>
       </c>
       <c r="AD3" t="n">
-        <v>222089.8697005518</v>
+        <v>286771.0922201254</v>
       </c>
       <c r="AE3" t="n">
-        <v>303873.1576377029</v>
+        <v>392372.8598232711</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.03034833199216e-06</v>
+        <v>3.04894285128387e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>274871.9299615057</v>
+        <v>354925.3447805048</v>
       </c>
     </row>
     <row r="4">
@@ -7947,28 +7947,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>221.6063277938773</v>
+        <v>286.287550313451</v>
       </c>
       <c r="AB4" t="n">
-        <v>303.2115542686279</v>
+        <v>391.7112564541957</v>
       </c>
       <c r="AC4" t="n">
-        <v>274.2734690894088</v>
+        <v>354.3268839084078</v>
       </c>
       <c r="AD4" t="n">
-        <v>221606.3277938773</v>
+        <v>286287.550313451</v>
       </c>
       <c r="AE4" t="n">
-        <v>303211.5542686279</v>
+        <v>391711.2564541957</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.040300770346959e-06</v>
+        <v>3.063888274833403e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.25</v>
       </c>
       <c r="AH4" t="n">
-        <v>274273.4690894088</v>
+        <v>354326.8839084078</v>
       </c>
     </row>
   </sheetData>
@@ -8244,28 +8244,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>226.3834324714219</v>
+        <v>296.9365681995565</v>
       </c>
       <c r="AB2" t="n">
-        <v>309.7477996394255</v>
+        <v>406.2817125274774</v>
       </c>
       <c r="AC2" t="n">
-        <v>280.1859043756976</v>
+        <v>367.5067561038191</v>
       </c>
       <c r="AD2" t="n">
-        <v>226383.432471422</v>
+        <v>296936.5681995564</v>
       </c>
       <c r="AE2" t="n">
-        <v>309747.7996394255</v>
+        <v>406281.7125274774</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.004331730310993e-06</v>
+        <v>3.074137275044973e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.2265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>280185.9043756976</v>
+        <v>367506.7561038191</v>
       </c>
     </row>
     <row r="3">
@@ -8350,28 +8350,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>208.6827654182057</v>
+        <v>271.4630500088311</v>
       </c>
       <c r="AB3" t="n">
-        <v>285.5289660789097</v>
+        <v>371.4277211266192</v>
       </c>
       <c r="AC3" t="n">
-        <v>258.2784822988434</v>
+        <v>335.9791807243746</v>
       </c>
       <c r="AD3" t="n">
-        <v>208682.7654182057</v>
+        <v>271463.0500088311</v>
       </c>
       <c r="AE3" t="n">
-        <v>285528.9660789097</v>
+        <v>371427.7211266192</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.105669877164561e-06</v>
+        <v>3.229564328319331e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.39322916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>258278.4822988433</v>
+        <v>335979.1807243746</v>
       </c>
     </row>
   </sheetData>
@@ -14444,28 +14444,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.7140828981206</v>
+        <v>268.6430828543741</v>
       </c>
       <c r="AB2" t="n">
-        <v>273.2576189845877</v>
+        <v>367.5693176577204</v>
       </c>
       <c r="AC2" t="n">
-        <v>247.1782953482557</v>
+        <v>332.4890178672442</v>
       </c>
       <c r="AD2" t="n">
-        <v>199714.0828981206</v>
+        <v>268643.0828543741</v>
       </c>
       <c r="AE2" t="n">
-        <v>273257.6189845877</v>
+        <v>367569.3176577204</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.131755583727028e-06</v>
+        <v>3.330826049915327e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.7578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>247178.2953482557</v>
+        <v>332489.0178672442</v>
       </c>
     </row>
     <row r="3">
@@ -14550,28 +14550,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>200.4565955693769</v>
+        <v>269.3855955256304</v>
       </c>
       <c r="AB3" t="n">
-        <v>274.2735575787472</v>
+        <v>368.5852562518805</v>
       </c>
       <c r="AC3" t="n">
-        <v>248.0972741888678</v>
+        <v>333.4079967078564</v>
       </c>
       <c r="AD3" t="n">
-        <v>200456.5955693769</v>
+        <v>269385.5955256304</v>
       </c>
       <c r="AE3" t="n">
-        <v>274273.5575787472</v>
+        <v>368585.2562518805</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.130274474111716e-06</v>
+        <v>3.328511845356831e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.77083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>248097.2741888678</v>
+        <v>333407.9967078564</v>
       </c>
     </row>
   </sheetData>
@@ -14847,28 +14847,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>198.3519990435103</v>
+        <v>263.8925531299744</v>
       </c>
       <c r="AB2" t="n">
-        <v>271.3939557638122</v>
+        <v>361.0694333102168</v>
       </c>
       <c r="AC2" t="n">
-        <v>245.4924975296026</v>
+        <v>326.6094733592213</v>
       </c>
       <c r="AD2" t="n">
-        <v>198351.9990435103</v>
+        <v>263892.5531299744</v>
       </c>
       <c r="AE2" t="n">
-        <v>271393.9557638122</v>
+        <v>361069.4333102168</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.089696434305849e-06</v>
+        <v>3.405528404403271e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.34635416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>245492.4975296026</v>
+        <v>326609.4733592213</v>
       </c>
     </row>
   </sheetData>
@@ -15144,28 +15144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>321.807181028637</v>
+        <v>404.6938860748285</v>
       </c>
       <c r="AB2" t="n">
-        <v>440.310782214226</v>
+        <v>553.7200287617743</v>
       </c>
       <c r="AC2" t="n">
-        <v>398.2881391397636</v>
+        <v>500.8737663676912</v>
       </c>
       <c r="AD2" t="n">
-        <v>321807.181028637</v>
+        <v>404693.8860748284</v>
       </c>
       <c r="AE2" t="n">
-        <v>440310.782214226</v>
+        <v>553720.0287617743</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.579614388701886e-06</v>
+        <v>2.333691976804289e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.29947916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>398288.1391397637</v>
+        <v>500873.7663676912</v>
       </c>
     </row>
     <row r="3">
@@ -15250,28 +15250,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>255.590282114543</v>
+        <v>321.9679367368668</v>
       </c>
       <c r="AB3" t="n">
-        <v>349.7098998363911</v>
+        <v>440.5307352662672</v>
       </c>
       <c r="AC3" t="n">
-        <v>316.3340778170373</v>
+        <v>398.4871001812241</v>
       </c>
       <c r="AD3" t="n">
-        <v>255590.282114543</v>
+        <v>321967.9367368668</v>
       </c>
       <c r="AE3" t="n">
-        <v>349709.8998363911</v>
+        <v>440530.7352662673</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.875339709562942e-06</v>
+        <v>2.770590889328418e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.09635416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>316334.0778170374</v>
+        <v>398487.1001812241</v>
       </c>
     </row>
     <row r="4">
@@ -15356,28 +15356,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>233.0608635627917</v>
+        <v>299.3531773305435</v>
       </c>
       <c r="AB4" t="n">
-        <v>318.8841554461017</v>
+        <v>409.5882237537644</v>
       </c>
       <c r="AC4" t="n">
-        <v>288.4502992071435</v>
+        <v>370.4976985393869</v>
       </c>
       <c r="AD4" t="n">
-        <v>233060.8635627917</v>
+        <v>299353.1773305435</v>
       </c>
       <c r="AE4" t="n">
-        <v>318884.1554461017</v>
+        <v>409588.2237537644</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.97076356434628e-06</v>
+        <v>2.911568260702338e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.26302083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>288450.2992071435</v>
+        <v>370497.6985393869</v>
       </c>
     </row>
     <row r="5">
@@ -15462,28 +15462,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>233.3287136774952</v>
+        <v>299.6210274452471</v>
       </c>
       <c r="AB5" t="n">
-        <v>319.250639789752</v>
+        <v>409.9547080974149</v>
       </c>
       <c r="AC5" t="n">
-        <v>288.7818067993999</v>
+        <v>370.8292061316434</v>
       </c>
       <c r="AD5" t="n">
-        <v>233328.7136774953</v>
+        <v>299621.0274452472</v>
       </c>
       <c r="AE5" t="n">
-        <v>319250.639789752</v>
+        <v>409954.7080974149</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.968867889212555e-06</v>
+        <v>2.908767626647696e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.27604166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>288781.8067994</v>
+        <v>370829.2061316434</v>
       </c>
     </row>
   </sheetData>
@@ -15759,28 +15759,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>392.6954991640771</v>
+        <v>494.9579523979853</v>
       </c>
       <c r="AB2" t="n">
-        <v>537.3033064590124</v>
+        <v>677.2233064746764</v>
       </c>
       <c r="AC2" t="n">
-        <v>486.0238330004905</v>
+        <v>612.5900645936127</v>
       </c>
       <c r="AD2" t="n">
-        <v>392695.4991640772</v>
+        <v>494957.9523979853</v>
       </c>
       <c r="AE2" t="n">
-        <v>537303.3064590124</v>
+        <v>677223.3064746764</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.361461644891574e-06</v>
+        <v>1.977072416678584e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.6953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>486023.8330004904</v>
+        <v>612590.0645936127</v>
       </c>
     </row>
     <row r="3">
@@ -15865,28 +15865,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>298.1256880276171</v>
+        <v>374.8012822479562</v>
       </c>
       <c r="AB3" t="n">
-        <v>407.9087187364943</v>
+        <v>512.8196494372412</v>
       </c>
       <c r="AC3" t="n">
-        <v>368.9784831237649</v>
+        <v>463.8768618418485</v>
       </c>
       <c r="AD3" t="n">
-        <v>298125.6880276171</v>
+        <v>374801.2822479563</v>
       </c>
       <c r="AE3" t="n">
-        <v>407908.7187364943</v>
+        <v>512819.6494372411</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.688470554649458e-06</v>
+        <v>2.451944623263542e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.29427083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>368978.4831237649</v>
+        <v>463876.8618418485</v>
       </c>
     </row>
     <row r="4">
@@ -15971,28 +15971,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>261.1680141826179</v>
+        <v>337.8435188944061</v>
       </c>
       <c r="AB4" t="n">
-        <v>357.3415989242684</v>
+        <v>462.252407155467</v>
       </c>
       <c r="AC4" t="n">
-        <v>323.2374182550195</v>
+        <v>418.1356861918765</v>
       </c>
       <c r="AD4" t="n">
-        <v>261168.0141826179</v>
+        <v>337843.5188944062</v>
       </c>
       <c r="AE4" t="n">
-        <v>357341.5989242684</v>
+        <v>462252.407155467</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.819615741325429e-06</v>
+        <v>2.642389599903244e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.97916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>323237.4182550195</v>
+        <v>418135.6861918765</v>
       </c>
     </row>
     <row r="5">
@@ -16077,28 +16077,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>249.6489008271025</v>
+        <v>317.7955122067382</v>
       </c>
       <c r="AB5" t="n">
-        <v>341.5806398436758</v>
+        <v>434.8218399497664</v>
       </c>
       <c r="AC5" t="n">
-        <v>308.9806629885362</v>
+        <v>393.3230538212452</v>
       </c>
       <c r="AD5" t="n">
-        <v>249648.9008271025</v>
+        <v>317795.5122067382</v>
       </c>
       <c r="AE5" t="n">
-        <v>341580.6398436758</v>
+        <v>434821.8399497664</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.883100639940642e-06</v>
+        <v>2.734580402632593e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.40625</v>
       </c>
       <c r="AH5" t="n">
-        <v>308980.6629885362</v>
+        <v>393323.0538212452</v>
       </c>
     </row>
     <row r="6">
@@ -16183,28 +16183,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>248.3840829595135</v>
+        <v>316.5306943391492</v>
       </c>
       <c r="AB6" t="n">
-        <v>339.8500602374153</v>
+        <v>433.0912603435049</v>
       </c>
       <c r="AC6" t="n">
-        <v>307.4152474710129</v>
+        <v>391.7576383037216</v>
       </c>
       <c r="AD6" t="n">
-        <v>248384.0829595135</v>
+        <v>316530.6943391492</v>
       </c>
       <c r="AE6" t="n">
-        <v>339850.0602374153</v>
+        <v>433091.260343505</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.889553514538302e-06</v>
+        <v>2.743951067185054e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.35416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>307415.2474710129</v>
+        <v>391757.6383037216</v>
       </c>
     </row>
   </sheetData>
@@ -16480,28 +16480,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>206.2712454201727</v>
+        <v>277.3426337767658</v>
       </c>
       <c r="AB2" t="n">
-        <v>282.2294180288488</v>
+        <v>379.4724270268363</v>
       </c>
       <c r="AC2" t="n">
-        <v>255.2938384837345</v>
+        <v>343.2561111842906</v>
       </c>
       <c r="AD2" t="n">
-        <v>206271.2454201727</v>
+        <v>277342.6337767657</v>
       </c>
       <c r="AE2" t="n">
-        <v>282229.4180288488</v>
+        <v>379472.4270268363</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.94796926526413e-06</v>
+        <v>3.247148707053027e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.37760416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>255293.8384837345</v>
+        <v>343256.1111842906</v>
       </c>
     </row>
   </sheetData>
@@ -16777,28 +16777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>237.9670277662044</v>
+        <v>309.4498965485502</v>
       </c>
       <c r="AB2" t="n">
-        <v>325.5969857538965</v>
+        <v>423.4030004236557</v>
       </c>
       <c r="AC2" t="n">
-        <v>294.5224664118809</v>
+        <v>382.9940123130647</v>
       </c>
       <c r="AD2" t="n">
-        <v>237967.0277662044</v>
+        <v>309449.8965485502</v>
       </c>
       <c r="AE2" t="n">
-        <v>325596.9857538965</v>
+        <v>423403.0004236557</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.920849172515939e-06</v>
+        <v>2.923353074980929e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.70833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>294522.4664118809</v>
+        <v>382994.0123130647</v>
       </c>
     </row>
     <row r="3">
@@ -16883,28 +16883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>212.9228509581584</v>
+        <v>276.3779274186674</v>
       </c>
       <c r="AB3" t="n">
-        <v>291.3304381740422</v>
+        <v>378.1524732278454</v>
       </c>
       <c r="AC3" t="n">
-        <v>263.5262700396355</v>
+        <v>342.0621319233086</v>
       </c>
       <c r="AD3" t="n">
-        <v>212922.8509581584</v>
+        <v>276377.9274186674</v>
       </c>
       <c r="AE3" t="n">
-        <v>291330.4381740422</v>
+        <v>378152.4732278454</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.085977874316893e-06</v>
+        <v>3.174663539688133e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.31510416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>263526.2700396355</v>
+        <v>342062.1319233087</v>
       </c>
     </row>
   </sheetData>
@@ -17180,28 +17180,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>288.5797312259903</v>
+        <v>370.07135055571</v>
       </c>
       <c r="AB2" t="n">
-        <v>394.847519502617</v>
+        <v>506.3479482260508</v>
       </c>
       <c r="AC2" t="n">
-        <v>357.1638264132606</v>
+        <v>458.0228107111645</v>
       </c>
       <c r="AD2" t="n">
-        <v>288579.7312259903</v>
+        <v>370071.35055571</v>
       </c>
       <c r="AE2" t="n">
-        <v>394847.519502617</v>
+        <v>506347.9482260508</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.708167510857581e-06</v>
+        <v>2.550141544139117e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.1796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>357163.8264132606</v>
+        <v>458022.8107111645</v>
       </c>
     </row>
     <row r="3">
@@ -17286,28 +17286,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>230.4414741740547</v>
+        <v>303.8521236967666</v>
       </c>
       <c r="AB3" t="n">
-        <v>315.3001913251296</v>
+        <v>415.7438806515365</v>
       </c>
       <c r="AC3" t="n">
-        <v>285.2083835917505</v>
+        <v>376.0658681823543</v>
       </c>
       <c r="AD3" t="n">
-        <v>230441.4741740547</v>
+        <v>303852.1236967666</v>
       </c>
       <c r="AE3" t="n">
-        <v>315300.1913251296</v>
+        <v>415743.8806515365</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.977986736845129e-06</v>
+        <v>2.95295755206849e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.5625</v>
       </c>
       <c r="AH3" t="n">
-        <v>285208.3835917505</v>
+        <v>376065.8681823543</v>
       </c>
     </row>
     <row r="4">
@@ -17392,28 +17392,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>225.5248056834213</v>
+        <v>290.769323561653</v>
       </c>
       <c r="AB4" t="n">
-        <v>308.5729885881431</v>
+        <v>397.8434163342669</v>
       </c>
       <c r="AC4" t="n">
-        <v>279.1232156422916</v>
+        <v>359.8737990560655</v>
       </c>
       <c r="AD4" t="n">
-        <v>225524.8056834213</v>
+        <v>290769.323561653</v>
       </c>
       <c r="AE4" t="n">
-        <v>308572.9885881431</v>
+        <v>397843.4163342669</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.01559439513819e-06</v>
+        <v>3.009102427311303e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.25</v>
       </c>
       <c r="AH4" t="n">
-        <v>279123.2156422916</v>
+        <v>359873.7990560655</v>
       </c>
     </row>
   </sheetData>
